--- a/bia/bia_data.xlsx
+++ b/bia/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F2473-70BD-DC48-9DE8-E1B179D426AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A218C-9C5E-2B47-8FAC-B31C41150393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3160" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="-28400" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,11 +607,12 @@
         <v>10</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/bia/bia_data.xlsx
+++ b/bia/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A218C-9C5E-2B47-8FAC-B31C41150393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08073D22-A615-CD44-89FA-0DC9A9F9A6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28400" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="-27900" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Chinese red spinach or amaranth leaves are nutritionally similar to Swiss chard, spinach and beetroot leaves, and offer a rich source of carotenoids, vitamin C, minerals and trace elements. The leaves also contain the amino acids methionine and lysine making them a great companion for rice which is deficient in lysine. https://zenxin.com.sg/store/fresh-produce/vegetables-fresh-produce/organic-bayam-spinach-red-150g-thailand</t>
   </si>
   <si>
-    <t>BayamRed</t>
-  </si>
-  <si>
     <t>dli_l</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>dli_u</t>
+  </si>
+  <si>
+    <t>AmaranthRed</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -488,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -497,66 +497,66 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="170">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -571,7 +571,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>35</v>
@@ -586,13 +586,13 @@
         <v>0.6</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -601,10 +601,10 @@
         <v>4.5</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2">
         <v>14.75</v>
